--- a/All Model Comparison/Sandia_PV_Module_P-Matrix-and-TempCo-Data_2019.xlsx
+++ b/All Model Comparison/Sandia_PV_Module_P-Matrix-and-TempCo-Data_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B7ABE-3FE5-4FE9-9433-DDA7C0E77D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E713FFE1-9D84-45CA-AAAD-9E2F5655A6B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="180" windowWidth="13545" windowHeight="14745" firstSheet="5" activeTab="8" xr2:uid="{D5DEFD13-1D7B-4A0E-A558-B3E0172862B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{D5DEFD13-1D7B-4A0E-A558-B3E0172862B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Panasonic" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -180,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,8 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +529,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +895,7 @@
       <c r="G17">
         <v>58.537005243989697</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>322.304584681341</v>
       </c>
     </row>
@@ -1661,7 +1671,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A32"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2034,7 @@
       <c r="G17">
         <v>32.723933923162903</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>320.31819833806799</v>
       </c>
     </row>
@@ -2800,7 +2810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4D648F-AD45-4A66-A6DC-752D206FA876}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3162,7 +3174,7 @@
       <c r="G17">
         <v>31.129433437853699</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>277.92199057123702</v>
       </c>
     </row>
@@ -5076,7 +5088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A8D90-B792-4F9C-B665-BE026C42683D}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5438,7 +5452,7 @@
       <c r="G17">
         <v>31.4824604801913</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>277.37358674593298</v>
       </c>
     </row>
@@ -6213,7 +6227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56419B8-9BC5-4AFF-95CA-BA406470D223}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6575,7 +6591,7 @@
       <c r="G17">
         <v>31.107426382561801</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>267.53480725579698</v>
       </c>
     </row>
@@ -7350,7 +7366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB541F5-D4DE-4C2C-8868-02B750FE0497}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7712,7 +7730,7 @@
       <c r="G17">
         <v>31.960877901876099</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>285.909828874293</v>
       </c>
     </row>
@@ -8487,7 +8505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FE929C-48DC-4BD4-8EAD-EE7C78D08A4F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8849,7 +8869,7 @@
       <c r="G17">
         <v>31.9313047890349</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>289.87831369754599</v>
       </c>
     </row>
@@ -9624,7 +9644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755684DF-A9CA-4E60-9341-B4D3D2228B9F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
